--- a/P3-Cruzado.xlsx
+++ b/P3-Cruzado.xlsx
@@ -307,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
@@ -382,6 +382,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CX8"/>
+  <dimension ref="A1:CX15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1611,31 +1660,31 @@
         <v>7</v>
       </c>
       <c r="W5" s="16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X5" s="16" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z5" s="16" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AA5" s="16" t="n">
         <v>1</v>
       </c>
       <c r="AB5" s="16" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AE5" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="16" t="n">
         <v>0</v>
@@ -1644,19 +1693,19 @@
         <v>2</v>
       </c>
       <c r="AH5" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" s="16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ5" s="16" t="n">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AK5" s="16" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AL5" s="17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM5" s="15" t="n">
         <v>45</v>
@@ -1918,10 +1967,10 @@
         <v>2</v>
       </c>
       <c r="V6" s="21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="X6" s="22" t="n">
         <v>3</v>
@@ -1930,13 +1979,13 @@
         <v>1</v>
       </c>
       <c r="Z6" s="22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="22" t="n">
         <v>1</v>
       </c>
       <c r="AB6" s="22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AC6" s="22" t="n">
         <v>0</v>
@@ -1945,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="AE6" s="22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="22" t="n">
         <v>0</v>
@@ -1963,10 +2012,10 @@
         <v>136</v>
       </c>
       <c r="AK6" s="22" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AL6" s="23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AM6" s="21" t="n">
         <v>0</v>
@@ -2228,25 +2277,25 @@
         <v>8</v>
       </c>
       <c r="V7" s="21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W7" s="22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" s="22" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Y7" s="22" t="n">
         <v>3</v>
       </c>
       <c r="Z7" s="22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AA7" s="22" t="n">
         <v>1</v>
       </c>
       <c r="AB7" s="22" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC7" s="22" t="n">
         <v>0</v>
@@ -2267,16 +2316,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AJ7" s="22" t="n">
         <v>381</v>
       </c>
       <c r="AK7" s="22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AL7" s="23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM7" s="21" t="n">
         <v>25</v>
@@ -2538,34 +2587,34 @@
         <v>17</v>
       </c>
       <c r="V8" s="27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W8" s="25" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="X8" s="25" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z8" s="25" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AA8" s="25" t="n">
         <v>2</v>
       </c>
       <c r="AB8" s="25" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="AC8" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="25" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE8" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8" s="25" t="n">
         <v>2</v>
@@ -2574,19 +2623,19 @@
         <v>2</v>
       </c>
       <c r="AH8" s="25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AJ8" s="25" t="n">
-        <v>924</v>
+        <v>929</v>
       </c>
       <c r="AK8" s="25" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="AL8" s="28" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AM8" s="27" t="n">
         <v>70</v>
@@ -2781,20 +2830,1916 @@
         <v>81</v>
       </c>
     </row>
+    <row r="9">
+      <c r="CX9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="30" t="inlineStr"/>
+      <c r="B10" s="31" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="C10" s="31" t="inlineStr">
+        <is>
+          <t>P37 Género</t>
+        </is>
+      </c>
+      <c r="F10" s="31" t="inlineStr">
+        <is>
+          <t>Rango de edad</t>
+        </is>
+      </c>
+      <c r="K10" s="31" t="inlineStr">
+        <is>
+          <t>P40 Nivel académico</t>
+        </is>
+      </c>
+      <c r="V10" s="31" t="inlineStr">
+        <is>
+          <t>P39 Idiomas</t>
+        </is>
+      </c>
+      <c r="AM10" s="31" t="inlineStr">
+        <is>
+          <t>P44 Oficina/Agencia/Delegación</t>
+        </is>
+      </c>
+      <c r="BI10" s="31" t="inlineStr">
+        <is>
+          <t>P44.1 Aduana</t>
+        </is>
+      </c>
+      <c r="BT10" s="31" t="inlineStr">
+        <is>
+          <t>P9 Personería</t>
+        </is>
+      </c>
+      <c r="CI10" s="31" t="inlineStr">
+        <is>
+          <t>P38 Etnia</t>
+        </is>
+      </c>
+      <c r="CN10" s="31" t="inlineStr">
+        <is>
+          <t>P3 Medios SAT utilizados</t>
+        </is>
+      </c>
+      <c r="CQ10" s="31" t="inlineStr">
+        <is>
+          <t>Oficina/Agencia/Delegación</t>
+        </is>
+      </c>
+      <c r="CU10" s="31" t="inlineStr">
+        <is>
+          <t>Aduana</t>
+        </is>
+      </c>
+      <c r="CX10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr"/>
+      <c r="B11" s="8" t="inlineStr"/>
+      <c r="C11" s="9" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>No deseo responder</t>
+        </is>
+      </c>
+      <c r="F11" s="9" t="inlineStr">
+        <is>
+          <t>18 - 25</t>
+        </is>
+      </c>
+      <c r="G11" s="10" t="inlineStr">
+        <is>
+          <t>26 - 35</t>
+        </is>
+      </c>
+      <c r="H11" s="10" t="inlineStr">
+        <is>
+          <t>36 - 45</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>46 - 60</t>
+        </is>
+      </c>
+      <c r="J11" s="11" t="inlineStr">
+        <is>
+          <t>Más de 61</t>
+        </is>
+      </c>
+      <c r="K11" s="9" t="inlineStr">
+        <is>
+          <t>a. Ninguno</t>
+        </is>
+      </c>
+      <c r="L11" s="10" t="inlineStr">
+        <is>
+          <t>b. Primaria incompleta</t>
+        </is>
+      </c>
+      <c r="M11" s="10" t="inlineStr">
+        <is>
+          <t>c. Primaria completa</t>
+        </is>
+      </c>
+      <c r="N11" s="10" t="inlineStr">
+        <is>
+          <t>d. Secundaria incompleta (1ro a 3ro básico)</t>
+        </is>
+      </c>
+      <c r="O11" s="10" t="inlineStr">
+        <is>
+          <t>e. Secundaria Completa (1ro a 3ro básico)</t>
+        </is>
+      </c>
+      <c r="P11" s="10" t="inlineStr">
+        <is>
+          <t>f. Diversificado incompleto</t>
+        </is>
+      </c>
+      <c r="Q11" s="10" t="inlineStr">
+        <is>
+          <t>g. Diversificado completo</t>
+        </is>
+      </c>
+      <c r="R11" s="10" t="inlineStr">
+        <is>
+          <t>h. Técnico</t>
+        </is>
+      </c>
+      <c r="S11" s="10" t="inlineStr">
+        <is>
+          <t>i. Universidad incompleta</t>
+        </is>
+      </c>
+      <c r="T11" s="10" t="inlineStr">
+        <is>
+          <t>j. Universidad Completa</t>
+        </is>
+      </c>
+      <c r="U11" s="11" t="inlineStr">
+        <is>
+          <t>k. Maestría / Posgrado</t>
+        </is>
+      </c>
+      <c r="V11" s="9" t="inlineStr">
+        <is>
+          <t>a. Achi</t>
+        </is>
+      </c>
+      <c r="W11" s="10" t="inlineStr">
+        <is>
+          <t>b. Qánjob'al</t>
+        </is>
+      </c>
+      <c r="X11" s="10" t="inlineStr">
+        <is>
+          <t>c. Q'eqchi</t>
+        </is>
+      </c>
+      <c r="Y11" s="10" t="inlineStr">
+        <is>
+          <t>d. Akateco</t>
+        </is>
+      </c>
+      <c r="Z11" s="10" t="inlineStr">
+        <is>
+          <t>e. Kaqchikel</t>
+        </is>
+      </c>
+      <c r="AA11" s="10" t="inlineStr">
+        <is>
+          <t>f. Sakapulteko</t>
+        </is>
+      </c>
+      <c r="AB11" s="10" t="inlineStr">
+        <is>
+          <t>h. Kiché</t>
+        </is>
+      </c>
+      <c r="AC11" s="10" t="inlineStr">
+        <is>
+          <t>i. Sipakapense</t>
+        </is>
+      </c>
+      <c r="AD11" s="10" t="inlineStr">
+        <is>
+          <t>k. Mam</t>
+        </is>
+      </c>
+      <c r="AE11" s="10" t="inlineStr">
+        <is>
+          <t>n. Mopan</t>
+        </is>
+      </c>
+      <c r="AF11" s="10" t="inlineStr">
+        <is>
+          <t>p. Ixil</t>
+        </is>
+      </c>
+      <c r="AG11" s="10" t="inlineStr">
+        <is>
+          <t>q. Poqomam</t>
+        </is>
+      </c>
+      <c r="AH11" s="10" t="inlineStr">
+        <is>
+          <t>s. Jakalteco</t>
+        </is>
+      </c>
+      <c r="AI11" s="10" t="inlineStr">
+        <is>
+          <t>t. Poqomchi</t>
+        </is>
+      </c>
+      <c r="AJ11" s="10" t="inlineStr">
+        <is>
+          <t>u. Ninguno</t>
+        </is>
+      </c>
+      <c r="AK11" s="10" t="inlineStr">
+        <is>
+          <t>v. Inglés</t>
+        </is>
+      </c>
+      <c r="AL11" s="11" t="inlineStr">
+        <is>
+          <t>w. Otro</t>
+        </is>
+      </c>
+      <c r="AM11" s="9" t="inlineStr">
+        <is>
+          <t>Alta Verapaz</t>
+        </is>
+      </c>
+      <c r="AN11" s="10" t="inlineStr">
+        <is>
+          <t>Baja Verapaz</t>
+        </is>
+      </c>
+      <c r="AO11" s="10" t="inlineStr">
+        <is>
+          <t>Chimaltenango</t>
+        </is>
+      </c>
+      <c r="AP11" s="10" t="inlineStr">
+        <is>
+          <t>Chiquimula</t>
+        </is>
+      </c>
+      <c r="AQ11" s="10" t="inlineStr">
+        <is>
+          <t>El Progreso</t>
+        </is>
+      </c>
+      <c r="AR11" s="10" t="inlineStr">
+        <is>
+          <t>Escuintla</t>
+        </is>
+      </c>
+      <c r="AS11" s="10" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="AT11" s="10" t="inlineStr">
+        <is>
+          <t>Huehuetenango</t>
+        </is>
+      </c>
+      <c r="AU11" s="10" t="inlineStr">
+        <is>
+          <t>Izabal</t>
+        </is>
+      </c>
+      <c r="AV11" s="10" t="inlineStr">
+        <is>
+          <t>Jalapa</t>
+        </is>
+      </c>
+      <c r="AW11" s="10" t="inlineStr">
+        <is>
+          <t>Jutiapa</t>
+        </is>
+      </c>
+      <c r="AX11" s="10" t="inlineStr">
+        <is>
+          <t>Petén</t>
+        </is>
+      </c>
+      <c r="AY11" s="10" t="inlineStr">
+        <is>
+          <t>Quetzaltenango</t>
+        </is>
+      </c>
+      <c r="AZ11" s="10" t="inlineStr">
+        <is>
+          <t>Quiché</t>
+        </is>
+      </c>
+      <c r="BA11" s="10" t="inlineStr">
+        <is>
+          <t>Retalhuleu</t>
+        </is>
+      </c>
+      <c r="BB11" s="10" t="inlineStr">
+        <is>
+          <t>Sacatepéquez</t>
+        </is>
+      </c>
+      <c r="BC11" s="10" t="inlineStr">
+        <is>
+          <t>San Marcos</t>
+        </is>
+      </c>
+      <c r="BD11" s="10" t="inlineStr">
+        <is>
+          <t>Santa Rosa</t>
+        </is>
+      </c>
+      <c r="BE11" s="10" t="inlineStr">
+        <is>
+          <t>Sololá</t>
+        </is>
+      </c>
+      <c r="BF11" s="10" t="inlineStr">
+        <is>
+          <t>Suchitepéquez</t>
+        </is>
+      </c>
+      <c r="BG11" s="10" t="inlineStr">
+        <is>
+          <t>Totonicapán</t>
+        </is>
+      </c>
+      <c r="BH11" s="11" t="inlineStr">
+        <is>
+          <t>Zacapa</t>
+        </is>
+      </c>
+      <c r="BI11" s="9" t="inlineStr">
+        <is>
+          <t>Central Guatemala</t>
+        </is>
+      </c>
+      <c r="BJ11" s="10" t="inlineStr">
+        <is>
+          <t>El Carmen</t>
+        </is>
+      </c>
+      <c r="BK11" s="10" t="inlineStr">
+        <is>
+          <t>Integrada Corinto</t>
+        </is>
+      </c>
+      <c r="BL11" s="10" t="inlineStr">
+        <is>
+          <t>Integrada El Florido</t>
+        </is>
+      </c>
+      <c r="BM11" s="10" t="inlineStr">
+        <is>
+          <t>La Mesilla</t>
+        </is>
+      </c>
+      <c r="BN11" s="10" t="inlineStr">
+        <is>
+          <t>Puerto Barrios Almacenadora Pelícano, S.A -ALPELSA</t>
+        </is>
+      </c>
+      <c r="BO11" s="10" t="inlineStr">
+        <is>
+          <t>Puerto Quetzal</t>
+        </is>
+      </c>
+      <c r="BP11" s="10" t="inlineStr">
+        <is>
+          <t>San Cristóbal</t>
+        </is>
+      </c>
+      <c r="BQ11" s="10" t="inlineStr">
+        <is>
+          <t>Santo Tomás de Castilla Zona Libre de Industria y Comercio -ZOLIC-</t>
+        </is>
+      </c>
+      <c r="BR11" s="10" t="inlineStr">
+        <is>
+          <t>Tikal</t>
+        </is>
+      </c>
+      <c r="BS11" s="11" t="inlineStr">
+        <is>
+          <t>Valle Nuevo</t>
+        </is>
+      </c>
+      <c r="BT11" s="9" t="inlineStr">
+        <is>
+          <t>a. Contribuyente/Propietario.</t>
+        </is>
+      </c>
+      <c r="BU11" s="10" t="inlineStr">
+        <is>
+          <t>b. Representante Legal</t>
+        </is>
+      </c>
+      <c r="BV11" s="10" t="inlineStr">
+        <is>
+          <t>c. Abogado y Notario</t>
+        </is>
+      </c>
+      <c r="BW11" s="10" t="inlineStr">
+        <is>
+          <t>d. Mandatario</t>
+        </is>
+      </c>
+      <c r="BX11" s="10" t="inlineStr">
+        <is>
+          <t>e. Contador/auxiliar</t>
+        </is>
+      </c>
+      <c r="BY11" s="10" t="inlineStr">
+        <is>
+          <t>f. Contador Público y Auditor</t>
+        </is>
+      </c>
+      <c r="BZ11" s="10" t="inlineStr">
+        <is>
+          <t>g. Gestor Tributario</t>
+        </is>
+      </c>
+      <c r="CA11" s="10" t="inlineStr">
+        <is>
+          <t>h. Importador</t>
+        </is>
+      </c>
+      <c r="CB11" s="10" t="inlineStr">
+        <is>
+          <t>i. Exportador</t>
+        </is>
+      </c>
+      <c r="CC11" s="10" t="inlineStr">
+        <is>
+          <t>j. Asistente de Agente</t>
+        </is>
+      </c>
+      <c r="CD11" s="10" t="inlineStr">
+        <is>
+          <t>k. Auxiliar Gestor Tributario</t>
+        </is>
+      </c>
+      <c r="CE11" s="10" t="inlineStr">
+        <is>
+          <t>m. Consolidador/Descons.</t>
+        </is>
+      </c>
+      <c r="CF11" s="10" t="inlineStr">
+        <is>
+          <t>n. Transportista Ad</t>
+        </is>
+      </c>
+      <c r="CG11" s="10" t="inlineStr">
+        <is>
+          <t>p. Mensajero</t>
+        </is>
+      </c>
+      <c r="CH11" s="11" t="inlineStr">
+        <is>
+          <t>r. Otro</t>
+        </is>
+      </c>
+      <c r="CI11" s="9" t="inlineStr">
+        <is>
+          <t>Garifuna</t>
+        </is>
+      </c>
+      <c r="CJ11" s="10" t="inlineStr">
+        <is>
+          <t>Ladino</t>
+        </is>
+      </c>
+      <c r="CK11" s="10" t="inlineStr">
+        <is>
+          <t>Maya</t>
+        </is>
+      </c>
+      <c r="CL11" s="10" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="CM11" s="11" t="inlineStr">
+        <is>
+          <t>Xinca</t>
+        </is>
+      </c>
+      <c r="CN11" s="9" t="inlineStr">
+        <is>
+          <t>a. Presencial</t>
+        </is>
+      </c>
+      <c r="CO11" s="10" t="inlineStr">
+        <is>
+          <t>b. Contact Center</t>
+        </is>
+      </c>
+      <c r="CP11" s="11" t="inlineStr">
+        <is>
+          <t>c. Servicios Electrónicos</t>
+        </is>
+      </c>
+      <c r="CQ11" s="9" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="CR11" s="10" t="inlineStr">
+        <is>
+          <t>Occidente</t>
+        </is>
+      </c>
+      <c r="CS11" s="10" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+      <c r="CT11" s="11" t="inlineStr">
+        <is>
+          <t>Nororiente</t>
+        </is>
+      </c>
+      <c r="CU11" s="9" t="inlineStr">
+        <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="CV11" s="10" t="inlineStr">
+        <is>
+          <t>Occidente</t>
+        </is>
+      </c>
+      <c r="CW11" s="10" t="inlineStr">
+        <is>
+          <t>Sur</t>
+        </is>
+      </c>
+      <c r="CX11" s="12" t="inlineStr">
+        <is>
+          <t>Nororiente</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="inlineStr">
+        <is>
+          <t>a. Presencial</t>
+        </is>
+      </c>
+      <c r="B12" s="32" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E12" s="35" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="33" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G12" s="34" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H12" s="34" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I12" s="34" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J12" s="35" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="33" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M12" s="34" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N12" s="34" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O12" s="34" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P12" s="34" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q12" s="34" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R12" s="34" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S12" s="34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="T12" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U12" s="35" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V12" s="33" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="W12" s="34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="X12" s="34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Y12" s="34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="Z12" s="34" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA12" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB12" s="34" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="34" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AE12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="16" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AG12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AJ12" s="34" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="AK12" s="34" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AL12" s="35" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AM12" s="33" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AN12" s="34" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AO12" s="34" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP12" s="34" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AQ12" s="34" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR12" s="34" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AS12" s="34" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AT12" s="34" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU12" s="34" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AV12" s="34" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AW12" s="34" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AX12" s="34" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AY12" s="34" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AZ12" s="34" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="BA12" s="34" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="BB12" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="BC12" s="34" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="BD12" s="34" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BE12" s="34" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="BF12" s="34" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BG12" s="34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BH12" s="35" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="BI12" s="33" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BJ12" s="34" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="BK12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="34" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BM12" s="34" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="BN12" s="34" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BO12" s="34" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BP12" s="34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BQ12" s="34" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BR12" s="34" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BS12" s="35" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="BT12" s="33" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="BU12" s="34" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="BV12" s="34" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BW12" s="34" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BX12" s="34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BY12" s="34" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BZ12" s="34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CA12" s="34" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CB12" s="34" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CC12" s="34" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="CD12" s="34" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CE12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF12" s="16" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CG12" s="34" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CH12" s="35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CI12" s="33" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="CJ12" s="34" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CK12" s="34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CL12" s="34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CM12" s="35" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CN12" s="33" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="CO12" s="16" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CP12" s="17" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CQ12" s="33" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CR12" s="34" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="CS12" s="34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="CT12" s="35" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="CU12" s="33" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="CV12" s="34" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="CW12" s="34" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CX12" s="36" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="19" t="inlineStr">
+        <is>
+          <t>b. Contact Center</t>
+        </is>
+      </c>
+      <c r="B13" s="37" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C13" s="38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E13" s="23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="F13" s="38" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H13" s="39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I13" s="39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="J13" s="40" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="K13" s="38" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L13" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M13" s="39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N13" s="39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="O13" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P13" s="39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q13" s="39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="R13" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="39" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="T13" s="39" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="U13" s="40" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="V13" s="38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="W13" s="39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="X13" s="39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Y13" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Z13" s="39" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AA13" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB13" s="39" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AC13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD13" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE13" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AG13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AH13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AI13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AJ13" s="39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AK13" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AL13" s="40" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AM13" s="21" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AN13" s="39" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AP13" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AQ13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AR13" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AS13" s="39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT13" s="39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AU13" s="39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AV13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AW13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AX13" s="39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AY13" s="39" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="AZ13" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BA13" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="BB13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BC13" s="39" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="BD13" s="39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BE13" s="39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BF13" s="39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BG13" s="39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="BH13" s="23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BI13" s="38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BJ13" s="39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="BK13" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BM13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BN13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BO13" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BP13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BQ13" s="39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BR13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BS13" s="23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="BT13" s="38" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="BU13" s="39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="BV13" s="39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BW13" s="39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="BX13" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY13" s="39" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="BZ13" s="39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CA13" s="39" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="CB13" s="39" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="CC13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CD13" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CE13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CF13" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG13" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CH13" s="40" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="CI13" s="38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CJ13" s="39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CK13" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="CL13" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CM13" s="23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CN13" s="21" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CO13" s="39" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CP13" s="23" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CQ13" s="38" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="CR13" s="39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="CS13" s="39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="CT13" s="40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="CU13" s="38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="CV13" s="39" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="CW13" s="39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="CX13" s="41" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="19" t="inlineStr">
+        <is>
+          <t>c. Servicios Electrónicos</t>
+        </is>
+      </c>
+      <c r="B14" s="37" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C14" s="38" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D14" s="39" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E14" s="40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="38" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G14" s="39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H14" s="39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="I14" s="39" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J14" s="40" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K14" s="38" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L14" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M14" s="39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="N14" s="39" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="O14" s="39" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="P14" s="39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q14" s="39" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="R14" s="39" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="S14" s="39" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="T14" s="39" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="U14" s="40" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="V14" s="38" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="W14" s="39" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="X14" s="39" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Y14" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Z14" s="39" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA14" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB14" s="39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AD14" s="39" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AE14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AF14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AH14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="AI14" s="39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AJ14" s="39" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AK14" s="39" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AL14" s="40" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AM14" s="38" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AN14" s="39" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AO14" s="39" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP14" s="39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AQ14" s="39" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AR14" s="39" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS14" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AT14" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AU14" s="39" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AV14" s="39" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AW14" s="39" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AX14" s="39" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AY14" s="39" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="AZ14" s="39" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BA14" s="39" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BB14" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BC14" s="39" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BD14" s="39" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="BE14" s="39" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BF14" s="39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BG14" s="39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BH14" s="40" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="BI14" s="38" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BJ14" s="39" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="BK14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL14" s="39" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="BM14" s="39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="BN14" s="39" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="BO14" s="39" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="BP14" s="39" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BQ14" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR14" s="39" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="BS14" s="40" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="BT14" s="38" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="BU14" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BV14" s="39" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="BW14" s="39" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="BX14" s="39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="BY14" s="39" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BZ14" s="39" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="CA14" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CB14" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CC14" s="39" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="CD14" s="39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CE14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CF14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CG14" s="39" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="CH14" s="40" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="CI14" s="38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CJ14" s="39" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CK14" s="39" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="CL14" s="39" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="CM14" s="40" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CN14" s="21" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CO14" s="22" t="inlineStr">
+        <is>
+          <t>---</t>
+        </is>
+      </c>
+      <c r="CP14" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CQ14" s="38" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="CR14" s="39" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="CS14" s="39" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="CT14" s="40" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CU14" s="38" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="CV14" s="39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="CW14" s="39" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="CX14" s="41" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B15" s="42" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="C15" s="43" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D15" s="44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="E15" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G15" s="44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H15" s="44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I15" s="44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J15" s="45" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K15" s="43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" s="44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O15" s="44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P15" s="44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Q15" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="R15" s="44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S15" s="44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="T15" s="44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U15" s="45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="V15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" s="44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA15" s="44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB15" s="44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AC15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="44" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AK15" s="44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL15" s="45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM15" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AO15" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AP15" s="44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="44" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT15" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AU15" s="44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV15" s="44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AW15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="44" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AY15" s="44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AZ15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BD15" s="44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BE15" s="44" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BF15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BI15" s="43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="BJ15" s="44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BK15" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO15" s="44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BP15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BR15" s="44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BS15" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT15" s="43" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="BU15" s="44" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="BV15" s="44" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BW15" s="44" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="BX15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BY15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="CA15" s="44" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="CB15" s="44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CC15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG15" s="44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CH15" s="45" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="CI15" s="43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="CJ15" s="44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="CK15" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CL15" s="44" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="CM15" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN15" s="43" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="CO15" s="44" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="CP15" s="45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="CQ15" s="43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="CR15" s="44" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="CS15" s="44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CT15" s="45" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CU15" s="43" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="CV15" s="44" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="CW15" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX15" s="46" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="23">
+    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="CQ10:CT10"/>
+    <mergeCell ref="AM10:BH10"/>
+    <mergeCell ref="V3:AL3"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="CU10:CX10"/>
+    <mergeCell ref="CI10:CM10"/>
+    <mergeCell ref="CU3:CX3"/>
     <mergeCell ref="AM3:BH3"/>
     <mergeCell ref="CN3:CP3"/>
-    <mergeCell ref="K3:U3"/>
+    <mergeCell ref="BT3:CH3"/>
     <mergeCell ref="F3:J3"/>
-    <mergeCell ref="BT3:CH3"/>
+    <mergeCell ref="A1:CX1"/>
+    <mergeCell ref="V10:AL10"/>
+    <mergeCell ref="BI10:BS10"/>
     <mergeCell ref="BI3:BS3"/>
-    <mergeCell ref="V3:AL3"/>
+    <mergeCell ref="BT10:CH10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="CN10:CP10"/>
+    <mergeCell ref="CQ3:CT3"/>
     <mergeCell ref="CI3:CM3"/>
-    <mergeCell ref="A1:CX1"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="CQ3:CT3"/>
-    <mergeCell ref="CU3:CX3"/>
+    <mergeCell ref="K10:U10"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
